--- a/timings.xlsx
+++ b/timings.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B80B47-EFDC-4EB8-9CC9-09DDD69CF684}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CA087E-63CA-4A05-8F20-E621684F4658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Timings</t>
   </si>
@@ -39,25 +39,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>机电集成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算机通信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器视觉</t>
-  </si>
-  <si>
-    <t>先进制造技术与系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新时代</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -70,19 +51,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Tencent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>院级高等讲堂</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zoom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tencent</t>
+    <t>考试</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +400,7 @@
   <dimension ref="A1:G148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,171 +428,108 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.56180555555555556</v>
+        <v>0.3125</v>
       </c>
       <c r="B2" s="2">
-        <v>290526102</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>68295144065</v>
+      </c>
+      <c r="C2" s="4">
+        <v>24550</v>
+      </c>
+      <c r="E2" s="3">
+        <v>44563</v>
+      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.41597222222222219</v>
+        <v>0.3125</v>
       </c>
       <c r="B3" s="2">
-        <v>732938173</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3"/>
+        <v>68295144065</v>
+      </c>
+      <c r="C3" s="4">
+        <v>24550</v>
+      </c>
+      <c r="E3" s="3">
+        <v>44564</v>
+      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.41597222222222219</v>
-      </c>
-      <c r="B4" s="5">
-        <v>109147089</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>0.3125</v>
+      </c>
+      <c r="B4" s="2">
+        <v>68295144065</v>
+      </c>
+      <c r="C4" s="4">
+        <v>24550</v>
+      </c>
+      <c r="E4" s="3">
+        <v>44565</v>
+      </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>0.64513888888888882</v>
-      </c>
-      <c r="B5" s="5">
-        <v>298268214</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5">
-        <v>3</v>
-      </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>0.74722222222222223</v>
-      </c>
-      <c r="B6" s="5">
-        <v>403848798</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6">
-        <v>3</v>
-      </c>
       <c r="E6" s="3"/>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>0.48680555555555555</v>
-      </c>
-      <c r="B7" s="5">
-        <v>124692830</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="E7" s="3">
-        <v>44679</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0.53472222222222221</v>
-      </c>
-      <c r="B8" s="5">
-        <v>84582727598</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="E8" s="3">
-        <v>44684</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B9" s="5">
-        <v>792644447</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="E9" s="3">
-        <v>44689</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>0.75694444444444453</v>
-      </c>
-      <c r="B10" s="5">
-        <v>85621775445</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="E10" s="3">
-        <v>44691</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E11" s="3"/>

--- a/timings.xlsx
+++ b/timings.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CA087E-63CA-4A05-8F20-E621684F4658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDFEA7C-1FD9-4363-98A4-6E92A8FD4E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="0" windowWidth="18015" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Timings</t>
   </si>
@@ -397,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -411,7 +411,7 @@
     <col min="6" max="6" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,9 +434,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.3125</v>
+        <v>0.31041666666666667</v>
       </c>
       <c r="B2" s="2">
         <v>68295144065</v>
@@ -444,8 +444,11 @@
       <c r="C2" s="4">
         <v>24550</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
       <c r="E2" s="3">
-        <v>44563</v>
+        <v>44928</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -453,10 +456,13 @@
       <c r="G2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.3125</v>
+        <v>0.31041666666666667</v>
       </c>
       <c r="B3" s="2">
         <v>68295144065</v>
@@ -464,8 +470,11 @@
       <c r="C3" s="4">
         <v>24550</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3" s="3">
-        <v>44564</v>
+        <v>44929</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -474,9 +483,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.3125</v>
+        <v>0.31041666666666701</v>
       </c>
       <c r="B4" s="2">
         <v>68295144065</v>
@@ -484,8 +493,11 @@
       <c r="C4" s="4">
         <v>24550</v>
       </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
       <c r="E4" s="3">
-        <v>44565</v>
+        <v>44930</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -494,59 +506,75 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="B5" s="2">
+        <v>68295144065</v>
+      </c>
+      <c r="C5" s="4">
+        <v>24550</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>44928</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
